--- a/biology/Médecine/Trauma_Center__Second_Opinion/Trauma_Center__Second_Opinion.xlsx
+++ b/biology/Médecine/Trauma_Center__Second_Opinion/Trauma_Center__Second_Opinion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trauma Center: Second Opinion (カドゥケウスZ 2つの超執刀, Kadukeusu Zetto Futatsu no Chōshittō?, Caduceus Z: Two Super Surgical Operations) est un jeu vidéo de simulation chirurgicale, développé et édité par Atlus, sorti sur Wii le 19 novembre 2006 aux États-Unis. C'est un remake de Trauma Center: Under the Knife sorti sur Nintendo DS. Ses graphismes et sa jouabilité ont été revus afin de tirer profit des capacités de la Wii.
 </t>
@@ -511,7 +523,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gameplay a été naturellement revu et adapté aux contrôleurs de la Wii. Le Nunchuck permet de sélectionner les différents instruments de chirurgien à disposition du joueur, tandis que la Wiimote permet l'utilisation de l'outil sélectionné. Le système de reconnaissance de mouvements permet de pointer précisément un endroit de la zone à opérer.
 </t>
@@ -542,7 +556,9 @@
           <t>Scénario</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le joueur incarne le Docteur Derek Stiles, médecin novice à l'hôpital Hope dans la ville Angeles Bay. Très tôt dans le jeu, une nouvelle maladie est découverte : La TAC Toxine Anti-Immuno Cellulaire. Le Dr Stiles rejoint Caduceus, une fédération qui a éradiqué les maladies comme le Sida et le cancer. Le joueur peut aussi incarner Nozomi Weaver, une chirurgienne venue du Japon, abandonnée de son pays d'origine à cause de son pouvoir surnaturel, la Main Curatrice (Healing Touch en anglais, et Don de Guérir dans la version Under the Knife).
 </t>
